--- a/myapp/files/9_MethodComparePercent/Scenario 355.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 355.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>8964</v>
+        <v>15584</v>
       </c>
       <c r="F2" t="n">
-        <v>7.21739130434783</v>
+        <v>3.24046253111231</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>6.94444444444444</v>
+        <v>3.17460317460317</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1323</v>
+        <v>12790</v>
       </c>
       <c r="F3" t="n">
-        <v>1.06521739130435</v>
+        <v>2.65949151520318</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>2.77777777777778</v>
+        <v>3.96825396825397</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>273</v>
+        <v>19755</v>
       </c>
       <c r="F4" t="n">
-        <v>0.219806763285024</v>
+        <v>4.10776035049561</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38888888888889</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>10425</v>
+        <v>49247</v>
       </c>
       <c r="F5" t="n">
-        <v>8.39371980676328</v>
+        <v>10.2401859772644</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -707,10 +707,10 @@
         <v>6.75675675675676</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>12.5</v>
+        <v>10.7142857142857</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>20846</v>
+        <v>62749</v>
       </c>
       <c r="F6" t="n">
-        <v>16.7842190016103</v>
+        <v>13.0477273719691</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>13.8888888888889</v>
+        <v>10.7142857142857</v>
       </c>
       <c r="K6" t="n">
         <v>13</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4929</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.02491271918972</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2597</v>
+        <v>22791</v>
       </c>
       <c r="F8" t="n">
-        <v>2.09098228663446</v>
+        <v>4.73905169061734</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.40540540540541</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J8" t="n">
-        <v>4.16666666666667</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6897</v>
+        <v>37638</v>
       </c>
       <c r="F9" t="n">
-        <v>5.55314009661836</v>
+        <v>7.82626596162763</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,16 +859,16 @@
         <v>8.10810810810811</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>6.94444444444444</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>5.40540540540541</v>
+        <v>4.05405405405405</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7232</v>
+        <v>51319</v>
       </c>
       <c r="F10" t="n">
-        <v>5.82286634460548</v>
+        <v>10.6710277614318</v>
       </c>
       <c r="G10" t="n">
         <v>14</v>
@@ -897,10 +897,10 @@
         <v>18.9189189189189</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>2.77777777777778</v>
+        <v>10.3174603174603</v>
       </c>
       <c r="K10" t="n">
         <v>9</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5231</v>
+        <v>37723</v>
       </c>
       <c r="F11" t="n">
-        <v>4.21175523349436</v>
+        <v>7.84394045566925</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -935,10 +935,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>4.16666666666667</v>
+        <v>8.73015873015873</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2469</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.513392068102945</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3645</v>
+        <v>22047</v>
       </c>
       <c r="F13" t="n">
-        <v>2.93478260869565</v>
+        <v>4.58434788394719</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>5.55555555555556</v>
+        <v>4.36507936507936</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>21632</v>
+        <v>47653</v>
       </c>
       <c r="F14" t="n">
-        <v>17.4170692431562</v>
+        <v>9.90873723017805</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>10.8108108108108</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>8.33333333333333</v>
+        <v>5.15873015873016</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>14068</v>
+        <v>25812</v>
       </c>
       <c r="F15" t="n">
-        <v>11.3268921095008</v>
+        <v>5.36722400237878</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,10 +1087,10 @@
         <v>12.1621621621622</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>9.72222222222222</v>
+        <v>4.76190476190476</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>9722</v>
+        <v>17730</v>
       </c>
       <c r="F16" t="n">
-        <v>7.82769726247987</v>
+        <v>3.68669152185711</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>5.55555555555556</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>589</v>
+        <v>895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.474235104669887</v>
+        <v>0.186102025497017</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.38888888888889</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1612</v>
+        <v>6518</v>
       </c>
       <c r="F18" t="n">
-        <v>1.29790660225443</v>
+        <v>1.35532179015593</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.38888888888889</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1734</v>
+        <v>8635</v>
       </c>
       <c r="F19" t="n">
-        <v>1.39613526570048</v>
+        <v>1.79552065940418</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,16 +1239,16 @@
         <v>10.8108108108108</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77777777777778</v>
+        <v>2.38095238095238</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.35135135135135</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2388</v>
+        <v>5847</v>
       </c>
       <c r="F20" t="n">
-        <v>1.92270531400966</v>
+        <v>1.21579725483917</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1277,16 +1277,16 @@
         <v>4.05405405405405</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.77777777777778</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>2.7027027027027</v>
+        <v>1.35135135135135</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4878</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.01430802276475</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.793650793650794</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.106670769921754</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.396825396825397</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4617</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.960036929295786</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.396825396825397</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4617</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.960036929295786</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.396825396825397</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2529</v>
+        <v>7146</v>
       </c>
       <c r="F25" t="n">
-        <v>2.03623188405797</v>
+        <v>1.48590511083987</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.7027027027027</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.77777777777778</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2493</v>
+        <v>7017</v>
       </c>
       <c r="F26" t="n">
-        <v>2.00724637681159</v>
+        <v>1.45908146694142</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.35135135135135</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4.16666666666667</v>
+        <v>1.98412698412698</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
